--- a/book.xlsx
+++ b/book.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="now" sheetId="1" r:id="rId1"/>
     <sheet name="to_read" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="320">
   <si>
     <t>http://novel.tingroom.com/</t>
   </si>
@@ -57,9 +56,24 @@
     <t>C++ primer</t>
   </si>
   <si>
+    <t>第5版</t>
+  </si>
+  <si>
     <t>C++ 程序设计语言</t>
   </si>
   <si>
+    <t>第4版</t>
+  </si>
+  <si>
+    <t>C++ 程序设计：原理与实践</t>
+  </si>
+  <si>
+    <t>第2版  初学者</t>
+  </si>
+  <si>
+    <t>c++设计与演化</t>
+  </si>
+  <si>
     <t>Effective C++</t>
   </si>
   <si>
@@ -81,6 +95,30 @@
     <t>深入理解计算机系统</t>
   </si>
   <si>
+    <t>第3版</t>
+  </si>
+  <si>
+    <t>大部分是硬件体系结构相关，少量的软件部分只提了一小部分知识</t>
+  </si>
+  <si>
+    <t>c++ 标准程序库</t>
+  </si>
+  <si>
+    <t>linux 多线程服务端编程</t>
+  </si>
+  <si>
+    <t>陈硕</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>向量计算</t>
+  </si>
+  <si>
+    <t>程序员的自我修养—链接、装载与库</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -90,9 +128,30 @@
     <t>C专家编程</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>并发</t>
+  </si>
+  <si>
+    <t>并发编程艺术</t>
+  </si>
+  <si>
+    <t>c++ 多线程编程实战</t>
+  </si>
+  <si>
+    <t>windows平台</t>
+  </si>
+  <si>
+    <t>多处理器编程的艺术</t>
+  </si>
+  <si>
     <t>网络</t>
   </si>
   <si>
+    <t>计算机网络</t>
+  </si>
+  <si>
     <t>计算机体系结构</t>
   </si>
   <si>
@@ -105,9 +164,6 @@
     <t>c++多线程</t>
   </si>
   <si>
-    <t>cpp concurrency in action</t>
-  </si>
-  <si>
     <t>进程间通信</t>
   </si>
   <si>
@@ -120,6 +176,9 @@
     <t>大话数据结构</t>
   </si>
   <si>
+    <t>大话设计模式</t>
+  </si>
+  <si>
     <t>数据结构和算法</t>
   </si>
   <si>
@@ -127,6 +186,27 @@
   </si>
   <si>
     <t>剑指offer</t>
+  </si>
+  <si>
+    <t>代码整洁之道</t>
+  </si>
+  <si>
+    <t>程序员修炼指南</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>性能优化方法</t>
+  </si>
+  <si>
+    <t>空指针问题</t>
+  </si>
+  <si>
+    <t>epoll</t>
+  </si>
+  <si>
+    <t>libevent</t>
   </si>
   <si>
     <t>독서연구소</t>
@@ -902,10 +982,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -923,8 +1003,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,6 +1060,60 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,69 +1133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,47 +1146,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1162,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1112,7 +1198,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,13 +1276,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,25 +1348,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,127 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,41 +1389,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1352,6 +1403,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,15 +1440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1403,6 +1454,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1411,10 +1497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1423,137 +1509,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,39 +1647,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1974,16 +2066,16 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="12">
         <v>78</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="13">
         <v>43956</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="13">
         <v>43962</v>
       </c>
     </row>
@@ -1991,35 +2083,35 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>99</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>43963</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>72</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="13">
         <v>43965</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="13">
         <v>43966</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C16">
         <v>288</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
@@ -2037,7 +2129,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2056,1439 +2148,1595 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D563"/>
+  <dimension ref="A2:F597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="11.55" customWidth="1"/>
     <col min="2" max="2" width="34.475" customWidth="1"/>
     <col min="3" max="3" width="23.1833333333333" customWidth="1"/>
+    <col min="4" max="5" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44153</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44166</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="5" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="6" t="s">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="2" customFormat="1"/>
-    <row r="75" spans="2:2">
-      <c r="B75" s="6" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" customFormat="1" spans="2:2">
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:2">
-      <c r="B77" s="1" t="s">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="7">
-        <v>72</v>
-      </c>
-      <c r="D81" s="7" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>56</v>
+      <c r="B87" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="2:2">
-      <c r="B95" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
-        <v>64</v>
-      </c>
-    </row>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="2" customFormat="1"/>
     <row r="109" spans="2:2">
-      <c r="B109" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="4" t="s">
-        <v>66</v>
+      <c r="B109" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="2:2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="2:2">
+      <c r="B111" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
-        <v>68</v>
+      <c r="B113" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="10">
+        <v>72</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="4" t="s">
-        <v>72</v>
+      <c r="B123" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="2:2">
+      <c r="B129" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" t="s">
-        <v>77</v>
+      <c r="B133" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" t="s">
-        <v>82</v>
+      <c r="B143" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="2:2">
-      <c r="B147" s="1" t="s">
-        <v>84</v>
+      <c r="B145" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="4" t="s">
-        <v>85</v>
+      <c r="B149" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="4" t="s">
-        <v>86</v>
+      <c r="B151" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="4" t="s">
-        <v>87</v>
+      <c r="B153" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="4" t="s">
-        <v>88</v>
+      <c r="B155" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" t="s">
-        <v>89</v>
+      <c r="B157" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="173" s="1" customFormat="1" spans="2:2">
-      <c r="B173" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="4" t="s">
-        <v>98</v>
+      <c r="B175" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" spans="2:2">
+      <c r="B181" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="4" t="s">
-        <v>102</v>
+      <c r="B183" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="4" t="s">
-        <v>103</v>
+      <c r="B185" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" t="s">
-        <v>104</v>
+      <c r="B187" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" t="s">
-        <v>105</v>
+      <c r="B189" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" s="1" customFormat="1" spans="2:2">
-      <c r="B209" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" spans="2:2">
+      <c r="B207" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="4" t="s">
-        <v>116</v>
+      <c r="B211" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="4" t="s">
-        <v>117</v>
+      <c r="B213" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="4" t="s">
-        <v>118</v>
+      <c r="B215" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="4" t="s">
-        <v>119</v>
+      <c r="B217" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="4" t="s">
-        <v>120</v>
+      <c r="B219" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="4" t="s">
-        <v>121</v>
+      <c r="B221" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="4" t="s">
-        <v>124</v>
+      <c r="B227" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="1" spans="2:2">
+      <c r="B243" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" t="s">
-        <v>133</v>
+      <c r="B245" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" t="s">
-        <v>134</v>
+      <c r="B247" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="249" spans="2:2">
-      <c r="B249" t="s">
-        <v>135</v>
+      <c r="B249" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="2:2">
-      <c r="B251" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="253" s="1" customFormat="1" spans="2:2">
-      <c r="B253" s="1" t="s">
-        <v>137</v>
+      <c r="B251" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="255" spans="2:2">
-      <c r="B255" s="4" t="s">
-        <v>138</v>
+      <c r="B255" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="257" spans="2:2">
-      <c r="B257" s="4" t="s">
-        <v>139</v>
+      <c r="B257" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" s="4" t="s">
-        <v>140</v>
+      <c r="B259" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="4" t="s">
-        <v>141</v>
+      <c r="B261" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="4" t="s">
-        <v>142</v>
+      <c r="B263" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="265" spans="2:2">
-      <c r="B265" s="4" t="s">
-        <v>143</v>
+      <c r="B265" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="271" spans="2:2">
-      <c r="B271" s="4" t="s">
-        <v>146</v>
+      <c r="B271" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="273" spans="2:2">
-      <c r="B273" s="4" t="s">
-        <v>147</v>
+      <c r="B273" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="2:2">
-      <c r="B275" s="4" t="s">
-        <v>148</v>
+      <c r="B275" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="277" spans="2:2">
-      <c r="B277" s="4" t="s">
-        <v>149</v>
+      <c r="B277" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="4" t="s">
-        <v>152</v>
+      <c r="B283" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="285" spans="2:2">
-      <c r="B285" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" t="s">
-        <v>154</v>
+      <c r="B285" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="287" s="1" customFormat="1" spans="2:2">
+      <c r="B287" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="289" spans="2:2">
-      <c r="B289" t="s">
-        <v>155</v>
+      <c r="B289" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" t="s">
-        <v>156</v>
+      <c r="B291" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="293" spans="2:2">
-      <c r="B293" t="s">
-        <v>157</v>
+      <c r="B293" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" t="s">
-        <v>158</v>
+      <c r="B295" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" t="s">
-        <v>159</v>
+      <c r="B297" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="299" spans="2:2">
-      <c r="B299" t="s">
-        <v>160</v>
+      <c r="B299" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="4" t="s">
-        <v>162</v>
+      <c r="B303" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="4" t="s">
-        <v>163</v>
+      <c r="B305" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" t="s">
-        <v>164</v>
+      <c r="B307" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="1" spans="2:2">
-      <c r="B311" s="1" t="s">
-        <v>166</v>
+      <c r="B309" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="313" spans="2:2">
-      <c r="B313" s="4" t="s">
-        <v>167</v>
+      <c r="B313" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="317" spans="2:2">
-      <c r="B317" s="4" t="s">
-        <v>169</v>
+      <c r="B317" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="319" spans="2:2">
-      <c r="B319" t="s">
-        <v>170</v>
+      <c r="B319" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" t="s">
-        <v>179</v>
+      <c r="B337" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="339" spans="2:2">
-      <c r="B339" t="s">
-        <v>180</v>
+      <c r="B339" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345" t="s">
-        <v>183</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="345" s="1" customFormat="1" spans="2:2">
+      <c r="B345" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="347" spans="2:2">
-      <c r="B347" t="s">
-        <v>184</v>
+      <c r="B347" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" t="s">
-        <v>186</v>
+      <c r="B351" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="355" s="1" customFormat="1" spans="2:2">
-      <c r="B355" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="363" spans="2:2">
       <c r="B363" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="377" spans="2:2">
       <c r="B377" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="4" t="s">
-        <v>200</v>
+      <c r="B379" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="389" s="1" customFormat="1" spans="2:2">
+      <c r="B389" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="397" spans="2:2">
       <c r="B397" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="399" spans="2:2">
       <c r="B399" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="401" spans="2:2">
       <c r="B401" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" t="s">
-        <v>217</v>
+      <c r="B413" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="417" spans="2:2">
       <c r="B417" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="419" spans="2:2">
       <c r="B419" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="423" spans="2:2">
-      <c r="B423" t="s">
-        <v>222</v>
+      <c r="B423" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="425" spans="2:2">
       <c r="B425" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="431" spans="2:2">
       <c r="B431" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="435" spans="2:2">
       <c r="B435" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="455" s="1" customFormat="1" spans="2:2">
-      <c r="B455" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="4" t="s">
-        <v>239</v>
+      <c r="B457" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="459" spans="2:2">
-      <c r="B459" s="4" t="s">
-        <v>240</v>
+      <c r="B459" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="461" spans="2:2">
-      <c r="B461" s="4" t="s">
-        <v>241</v>
+      <c r="B461" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="463" spans="2:2">
-      <c r="B463" s="4" t="s">
-        <v>242</v>
+      <c r="B463" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="465" spans="2:2">
-      <c r="B465" s="4" t="s">
-        <v>243</v>
+      <c r="B465" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="467" spans="2:2">
-      <c r="B467" s="4" t="s">
-        <v>244</v>
+      <c r="B467" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="471" spans="2:2">
       <c r="B471" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="473" spans="2:2">
       <c r="B473" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="487" spans="2:2">
       <c r="B487" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="489" spans="2:2">
-      <c r="B489" t="s">
-        <v>255</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="489" s="1" customFormat="1" spans="2:2">
+      <c r="B489" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="491" spans="2:2">
-      <c r="B491" t="s">
-        <v>256</v>
+      <c r="B491" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="493" spans="2:2">
-      <c r="B493" t="s">
-        <v>257</v>
+      <c r="B493" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="495" spans="2:2">
-      <c r="B495" t="s">
-        <v>258</v>
+      <c r="B495" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="497" spans="2:2">
-      <c r="B497" t="s">
-        <v>259</v>
+      <c r="B497" s="7" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="499" spans="2:2">
-      <c r="B499" t="s">
-        <v>260</v>
+      <c r="B499" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="501" spans="2:2">
-      <c r="B501" t="s">
-        <v>261</v>
+      <c r="B501" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="503" spans="2:2">
       <c r="B503" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="505" spans="2:2">
       <c r="B505" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="507" spans="2:2">
       <c r="B507" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="509" spans="2:2">
       <c r="B509" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="511" spans="2:2">
       <c r="B511" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="513" spans="2:2">
       <c r="B513" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="515" spans="2:2">
-      <c r="B515" s="4" t="s">
-        <v>268</v>
+      <c r="B515" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="519" spans="2:2">
       <c r="B519" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="523" spans="2:2">
       <c r="B523" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="531" spans="2:2">
-      <c r="B531" s="4" t="s">
-        <v>276</v>
+      <c r="B531" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="539" spans="2:2">
-      <c r="B539" s="4" t="s">
-        <v>280</v>
+      <c r="B539" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="547" spans="2:2">
-      <c r="B547" s="4" t="s">
-        <v>284</v>
+      <c r="B547" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="549" spans="2:2">
-      <c r="B549" t="s">
-        <v>285</v>
+      <c r="B549" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="551" spans="2:2">
-      <c r="B551" s="4" t="s">
-        <v>286</v>
+      <c r="B551" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="555" spans="2:2">
-      <c r="B555" s="4" t="s">
-        <v>288</v>
+      <c r="B555" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>292</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3496,21 +3744,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/book.xlsx
+++ b/book.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="338">
   <si>
     <t>http://novel.tingroom.com/</t>
   </si>
@@ -77,6 +77,12 @@
     <t>Effective C++</t>
   </si>
   <si>
+    <t>第3版</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
     <t>More Effective C++</t>
   </si>
   <si>
@@ -95,9 +101,6 @@
     <t>深入理解计算机系统</t>
   </si>
   <si>
-    <t>第3版</t>
-  </si>
-  <si>
     <t>大部分是硬件体系结构相关，少量的软件部分只提了一小部分知识</t>
   </si>
   <si>
@@ -110,12 +113,51 @@
     <t>陈硕</t>
   </si>
   <si>
+    <t>C++11</t>
+  </si>
+  <si>
+    <t>深入理解C++11</t>
+  </si>
+  <si>
+    <t>The C++ standard library, 2nd edition</t>
+  </si>
+  <si>
+    <t>Effective Modern C++</t>
+  </si>
+  <si>
+    <t>meyer</t>
+  </si>
+  <si>
+    <t>现代C++教程</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
     <t>向量计算</t>
   </si>
   <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>大话设计模式</t>
+  </si>
+  <si>
+    <t>不读</t>
+  </si>
+  <si>
+    <t>head first 设计模式</t>
+  </si>
+  <si>
+    <t>敏捷软件开发原则，模式和实践</t>
+  </si>
+  <si>
+    <t>设计模式之蝉</t>
+  </si>
+  <si>
+    <t>设计模式 可复用面向对象软件的基础</t>
+  </si>
+  <si>
     <t>程序员的自我修养—链接、装载与库</t>
   </si>
   <si>
@@ -131,12 +173,21 @@
     <t>DB</t>
   </si>
   <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
     <t>并发</t>
   </si>
   <si>
     <t>并发编程艺术</t>
   </si>
   <si>
+    <t>c++ concurrency in action(第2版)</t>
+  </si>
+  <si>
+    <t>第2版</t>
+  </si>
+  <si>
     <t>c++ 多线程编程实战</t>
   </si>
   <si>
@@ -170,18 +221,12 @@
     <t>unix 环境编程</t>
   </si>
   <si>
-    <t>设计模式</t>
+    <t>数据结构和算法</t>
   </si>
   <si>
     <t>大话数据结构</t>
   </si>
   <si>
-    <t>大话设计模式</t>
-  </si>
-  <si>
-    <t>数据结构和算法</t>
-  </si>
-  <si>
     <t>面试宝典</t>
   </si>
   <si>
@@ -207,6 +252,15 @@
   </si>
   <si>
     <t>libevent</t>
+  </si>
+  <si>
+    <t>地图管理</t>
+  </si>
+  <si>
+    <t>玩家协议 设置优先级来管理</t>
+  </si>
+  <si>
+    <t>根据网络协议优先级来优先处理某些重要协议</t>
   </si>
   <si>
     <t>독서연구소</t>
@@ -982,10 +1036,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -1003,38 +1057,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1043,28 +1073,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,7 +1095,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,9 +1126,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,17 +1140,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,20 +1198,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1198,7 +1252,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,19 +1336,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,13 +1366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,31 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,67 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,19 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,6 +1443,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1419,23 +1508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,26 +1543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1497,10 +1551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1509,133 +1563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2148,15 +2202,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F597"/>
+  <dimension ref="A2:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.55" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="34.475" customWidth="1"/>
     <col min="3" max="3" width="23.1833333333333" customWidth="1"/>
     <col min="4" max="5" width="11.5"/>
@@ -2201,42 +2255,60 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
         <v>44166</v>
@@ -2244,8 +2316,8 @@
       <c r="E13" s="3">
         <v>44169</v>
       </c>
-      <c r="F13" t="s">
-        <v>27</v>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -2253,7 +2325,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -2261,31 +2333,56 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44186</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44182</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44186</v>
+      </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4"/>
@@ -2294,1449 +2391,1531 @@
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44180</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44173</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
         <v>59</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
       <c r="B71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="6" t="s">
-        <v>66</v>
+      <c r="B84" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
-        <v>67</v>
+      <c r="B85" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
-        <v>68</v>
+      <c r="B86" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="2" customFormat="1"/>
+    <row r="121" spans="2:2">
+      <c r="B121" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="2:2">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="2:2">
+      <c r="B123" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="10">
         <v>72</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" spans="2:2">
-      <c r="B109" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" spans="2:2">
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="2:2">
-      <c r="B111" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="10">
-        <v>72</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="2:2">
-      <c r="B129" s="1" t="s">
-        <v>86</v>
+      <c r="D127" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="7" t="s">
-        <v>9</v>
+      <c r="B133" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="2:2">
+      <c r="B141" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="7" t="s">
-        <v>92</v>
+      <c r="B143" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" t="s">
-        <v>98</v>
+      <c r="B155" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" t="s">
-        <v>105</v>
+      <c r="B169" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" spans="2:2">
-      <c r="B181" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="7" t="s">
-        <v>112</v>
+      <c r="B183" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="7" t="s">
-        <v>113</v>
+      <c r="B185" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="7" t="s">
-        <v>114</v>
+      <c r="B187" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="7" t="s">
-        <v>115</v>
+      <c r="B189" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" spans="2:2">
+      <c r="B193" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" t="s">
-        <v>118</v>
+      <c r="B195" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" t="s">
-        <v>119</v>
+      <c r="B197" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" t="s">
-        <v>120</v>
+      <c r="B199" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" t="s">
-        <v>121</v>
+      <c r="B201" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="1" spans="2:2">
-      <c r="B207" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="7" t="s">
-        <v>125</v>
+      <c r="B209" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="7" t="s">
-        <v>128</v>
+      <c r="B215" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="7" t="s">
-        <v>130</v>
+      <c r="B217" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="219" s="1" customFormat="1" spans="2:2">
+      <c r="B219" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" t="s">
-        <v>131</v>
+      <c r="B221" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" t="s">
-        <v>134</v>
+      <c r="B227" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" t="s">
-        <v>135</v>
+      <c r="B229" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" t="s">
-        <v>136</v>
+      <c r="B231" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="243" s="1" customFormat="1" spans="2:2">
-      <c r="B243" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" s="7" t="s">
-        <v>143</v>
+      <c r="B245" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="7" t="s">
-        <v>144</v>
+      <c r="B247" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="249" spans="2:2">
-      <c r="B249" s="7" t="s">
-        <v>145</v>
+      <c r="B249" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="251" spans="2:2">
-      <c r="B251" s="7" t="s">
-        <v>146</v>
+      <c r="B251" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="7" t="s">
-        <v>148</v>
+      <c r="B253" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="1" spans="2:2">
+      <c r="B255" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="257" spans="2:2">
-      <c r="B257" t="s">
-        <v>149</v>
+      <c r="B257" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" t="s">
-        <v>150</v>
+      <c r="B259" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" t="s">
-        <v>152</v>
+      <c r="B263" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="265" spans="2:2">
-      <c r="B265" t="s">
-        <v>153</v>
+      <c r="B265" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="267" spans="2:2">
-      <c r="B267" t="s">
-        <v>154</v>
+      <c r="B267" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="273" spans="2:2">
-      <c r="B273" t="s">
-        <v>157</v>
+      <c r="B273" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="287" s="1" customFormat="1" spans="2:2">
-      <c r="B287" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="289" spans="2:2">
-      <c r="B289" s="7" t="s">
-        <v>165</v>
+      <c r="B289" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" s="7" t="s">
-        <v>166</v>
+      <c r="B291" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="293" spans="2:2">
-      <c r="B293" s="7" t="s">
-        <v>167</v>
+      <c r="B293" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="7" t="s">
-        <v>168</v>
+      <c r="B295" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="7" t="s">
-        <v>170</v>
+      <c r="B297" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" spans="2:2">
+      <c r="B299" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" t="s">
-        <v>171</v>
+      <c r="B301" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" t="s">
-        <v>172</v>
+      <c r="B303" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="321" spans="2:2">
-      <c r="B321" t="s">
-        <v>181</v>
+      <c r="B321" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="323" spans="2:2">
-      <c r="B323" t="s">
-        <v>182</v>
+      <c r="B323" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="329" spans="2:2">
-      <c r="B329" t="s">
-        <v>185</v>
+      <c r="B329" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="331" spans="2:2">
-      <c r="B331" t="s">
-        <v>186</v>
+      <c r="B331" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" s="7" t="s">
-        <v>189</v>
+      <c r="B337" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="339" spans="2:2">
-      <c r="B339" s="7" t="s">
-        <v>190</v>
+      <c r="B339" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="345" s="1" customFormat="1" spans="2:2">
-      <c r="B345" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="2:2">
-      <c r="B347" s="7" t="s">
-        <v>194</v>
+      <c r="B347" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" t="s">
-        <v>195</v>
+      <c r="B349" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="355" spans="2:2">
       <c r="B355" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="357" s="1" customFormat="1" spans="2:2">
+      <c r="B357" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="359" spans="2:2">
-      <c r="B359" t="s">
-        <v>200</v>
+      <c r="B359" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="363" spans="2:2">
-      <c r="B363" t="s">
-        <v>202</v>
+      <c r="B363" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="377" spans="2:2">
       <c r="B377" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="379" spans="2:2">
       <c r="B379" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="389" s="1" customFormat="1" spans="2:2">
-      <c r="B389" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="397" spans="2:2">
       <c r="B397" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="399" spans="2:2">
       <c r="B399" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2">
-      <c r="B401" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="401" s="1" customFormat="1" spans="2:2">
+      <c r="B401" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" s="7" t="s">
-        <v>227</v>
+      <c r="B413" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="417" spans="2:2">
       <c r="B417" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="419" spans="2:2">
       <c r="B419" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="423" spans="2:2">
-      <c r="B423" s="7" t="s">
-        <v>232</v>
+      <c r="B423" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="425" spans="2:2">
-      <c r="B425" t="s">
-        <v>233</v>
+      <c r="B425" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="431" spans="2:2">
       <c r="B431" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" t="s">
-        <v>238</v>
+      <c r="B435" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="455" spans="2:2">
       <c r="B455" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="457" spans="2:2">
       <c r="B457" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="459" spans="2:2">
       <c r="B459" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="461" spans="2:2">
       <c r="B461" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="463" spans="2:2">
       <c r="B463" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="465" spans="2:2">
       <c r="B465" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="467" spans="2:2">
       <c r="B467" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="471" spans="2:2">
       <c r="B471" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="473" spans="2:2">
       <c r="B473" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="487" spans="2:2">
       <c r="B487" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="489" s="1" customFormat="1" spans="2:2">
-      <c r="B489" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="491" spans="2:2">
-      <c r="B491" s="7" t="s">
-        <v>266</v>
+      <c r="B491" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="493" spans="2:2">
-      <c r="B493" s="7" t="s">
-        <v>267</v>
+      <c r="B493" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="495" spans="2:2">
-      <c r="B495" s="7" t="s">
-        <v>268</v>
+      <c r="B495" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="497" spans="2:2">
-      <c r="B497" s="7" t="s">
-        <v>269</v>
+      <c r="B497" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="499" spans="2:2">
-      <c r="B499" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="501" spans="2:2">
-      <c r="B501" s="7" t="s">
-        <v>271</v>
+      <c r="B499" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="501" s="1" customFormat="1" spans="2:2">
+      <c r="B501" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="503" spans="2:2">
-      <c r="B503" t="s">
-        <v>272</v>
+      <c r="B503" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="505" spans="2:2">
-      <c r="B505" t="s">
-        <v>273</v>
+      <c r="B505" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="507" spans="2:2">
-      <c r="B507" t="s">
-        <v>274</v>
+      <c r="B507" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="509" spans="2:2">
-      <c r="B509" t="s">
-        <v>275</v>
+      <c r="B509" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="511" spans="2:2">
-      <c r="B511" t="s">
-        <v>276</v>
+      <c r="B511" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="513" spans="2:2">
-      <c r="B513" t="s">
-        <v>277</v>
+      <c r="B513" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="515" spans="2:2">
       <c r="B515" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="519" spans="2:2">
       <c r="B519" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="523" spans="2:2">
       <c r="B523" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="549" spans="2:2">
-      <c r="B549" s="7" t="s">
-        <v>295</v>
+      <c r="B549" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="561" spans="2:2">
-      <c r="B561" t="s">
-        <v>301</v>
+      <c r="B561" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="565" spans="2:2">
-      <c r="B565" s="7" t="s">
-        <v>303</v>
+      <c r="B565" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="573" spans="2:2">
-      <c r="B573" s="7" t="s">
-        <v>307</v>
+      <c r="B573" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="577" spans="2:2">
-      <c r="B577" t="s">
-        <v>309</v>
+      <c r="B577" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="581" spans="2:2">
-      <c r="B581" s="7" t="s">
-        <v>311</v>
+      <c r="B581" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="585" spans="2:2">
       <c r="B585" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="587" spans="2:2">
       <c r="B587" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="589" spans="2:2">
-      <c r="B589" s="7" t="s">
-        <v>315</v>
+      <c r="B589" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="591" spans="2:2">
       <c r="B591" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="593" spans="2:2">
-      <c r="B593" t="s">
-        <v>317</v>
+      <c r="B593" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="595" spans="2:2">
       <c r="B595" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="597" spans="2:2">
-      <c r="B597" t="s">
-        <v>319</v>
+      <c r="B597" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="24585" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="now" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="351">
   <si>
     <t>http://novel.tingroom.com/</t>
   </si>
@@ -80,16 +80,22 @@
     <t>第3版</t>
   </si>
   <si>
+    <t>More Effective C++</t>
+  </si>
+  <si>
     <t>$$$</t>
   </si>
   <si>
-    <t>More Effective C++</t>
-  </si>
-  <si>
     <t>Exceptional C++</t>
   </si>
   <si>
-    <t>stl标准库</t>
+    <t>Effective STL</t>
+  </si>
+  <si>
+    <t>The C++ standard library, 2nd edition</t>
+  </si>
+  <si>
+    <t>第2版 C++11 工具书</t>
   </si>
   <si>
     <t>stl源码剖析</t>
@@ -104,9 +110,6 @@
     <t>大部分是硬件体系结构相关，少量的软件部分只提了一小部分知识</t>
   </si>
   <si>
-    <t>c++ 标准程序库</t>
-  </si>
-  <si>
     <t>linux 多线程服务端编程</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>深入理解C++11</t>
   </si>
   <si>
-    <t>The C++ standard library, 2nd edition</t>
-  </si>
-  <si>
     <t>Effective Modern C++</t>
   </si>
   <si>
@@ -176,12 +176,18 @@
     <t>数据库设计</t>
   </si>
   <si>
+    <t>radis</t>
+  </si>
+  <si>
     <t>并发</t>
   </si>
   <si>
     <t>并发编程艺术</t>
   </si>
   <si>
+    <t>java</t>
+  </si>
+  <si>
     <t>c++ concurrency in action(第2版)</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
     <t>多处理器编程的艺术</t>
   </si>
   <si>
+    <t>c++ concurrency in action 视频</t>
+  </si>
+  <si>
     <t>网络</t>
   </si>
   <si>
@@ -209,12 +218,6 @@
     <t>代码大全</t>
   </si>
   <si>
-    <t>多线程</t>
-  </si>
-  <si>
-    <t>c++多线程</t>
-  </si>
-  <si>
     <t>进程间通信</t>
   </si>
   <si>
@@ -261,6 +264,42 @@
   </si>
   <si>
     <t>根据网络协议优先级来优先处理某些重要协议</t>
+  </si>
+  <si>
+    <t>网络吞吐量</t>
+  </si>
+  <si>
+    <t>网络延时，协议延时引起的后果</t>
+  </si>
+  <si>
+    <t>网络握手断开时出现连接数未减的问题</t>
+  </si>
+  <si>
+    <t>玩家卡顿引起走路不光滑问题</t>
+  </si>
+  <si>
+    <t>智能指针详细讨论</t>
+  </si>
+  <si>
+    <t>无锁队列</t>
+  </si>
+  <si>
+    <t>数据库设计需要注意的地方，解决慢查询</t>
+  </si>
+  <si>
+    <t>行为树AI</t>
+  </si>
+  <si>
+    <t>3D地图管理</t>
+  </si>
+  <si>
+    <t>体素</t>
+  </si>
+  <si>
+    <t>tcp 拥塞控制，头解析，握手协议</t>
+  </si>
+  <si>
+    <t>异步send recv 函数 实现</t>
   </si>
   <si>
     <t>독서연구소</t>
@@ -1037,10 +1076,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1057,93 +1096,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1162,6 +1119,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1173,6 +1196,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,19 +1233,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1216,7 +1261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,12 +1291,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1252,7 +1309,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,31 +1423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,37 +1465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,97 +1483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,6 +1500,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1463,20 +1544,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,24 +1577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1529,17 +1592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,10 +1608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1563,183 +1620,201 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2120,16 +2195,16 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="18">
         <v>78</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="19">
         <v>43956</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="19">
         <v>43962</v>
       </c>
     </row>
@@ -2137,35 +2212,35 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="20">
         <v>99</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>43963</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="4">
         <v>72</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="19">
         <v>43965</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="19">
         <v>43966</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C16">
         <v>288</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
@@ -2183,7 +2258,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2202,16 +2277,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G609"/>
+  <dimension ref="A2:G621"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="34.475" customWidth="1"/>
+    <col min="2" max="2" width="42.325" customWidth="1"/>
     <col min="3" max="3" width="23.1833333333333" customWidth="1"/>
     <col min="4" max="5" width="11.5"/>
   </cols>
@@ -2220,58 +2295,61 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>44153</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>44165</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
+      <c r="D6" s="5">
+        <v>44195</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44200</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2279,1643 +2357,1732 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44202</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="5">
         <v>44166</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="5">
         <v>44169</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="4" t="s">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="7"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="5">
         <v>44186</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="5">
         <v>44194</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="5">
         <v>44182</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="5">
         <v>44186</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
-    </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="4"/>
-    </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
+    <row r="34" spans="2:5">
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="5">
         <v>44180</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="5">
         <v>44182</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="3">
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="5">
         <v>44173</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="5">
         <v>44179</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="C49" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D60" s="9">
+        <v>44200</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+      <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
         <v>82</v>
       </c>
-      <c r="B95" s="6" t="s">
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="6" t="s">
-        <v>84</v>
+      <c r="B96" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="6" t="s">
-        <v>85</v>
+      <c r="B97" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="6" t="s">
-        <v>86</v>
+      <c r="B98" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="6" t="s">
-        <v>87</v>
+      <c r="B99" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
+      <c r="B100" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="7" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="8" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="9" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" spans="2:2">
-      <c r="B121" s="9" t="s">
+      <c r="B107" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="122" customFormat="1" spans="2:2">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" s="1" customFormat="1" spans="2:2">
-      <c r="B123" s="1" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="7" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="3" customFormat="1"/>
+    <row r="133" spans="2:2">
+      <c r="B133" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="2:2">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" s="2" customFormat="1" spans="2:2">
+      <c r="B135" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
-      <c r="B127" s="7" t="s">
+    <row r="139" spans="2:4">
+      <c r="B139" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C139" s="17">
         <v>72</v>
       </c>
-      <c r="D127" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="2:2">
-      <c r="B141" s="1" t="s">
-        <v>104</v>
+      <c r="D139" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="7" t="s">
-        <v>9</v>
+      <c r="B145" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" spans="2:2">
+      <c r="B153" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="7" t="s">
-        <v>110</v>
+      <c r="B155" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="7" t="s">
-        <v>111</v>
+      <c r="B157" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" t="s">
-        <v>116</v>
+      <c r="B167" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="7" t="s">
-        <v>117</v>
+      <c r="B169" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" t="s">
-        <v>123</v>
+      <c r="B181" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="193" s="1" customFormat="1" spans="2:2">
-      <c r="B193" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="7" t="s">
-        <v>130</v>
+      <c r="B195" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="7" t="s">
-        <v>131</v>
+      <c r="B197" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="7" t="s">
-        <v>132</v>
+      <c r="B199" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="7" t="s">
-        <v>133</v>
+      <c r="B201" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="205" s="2" customFormat="1" spans="2:2">
+      <c r="B205" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" t="s">
-        <v>136</v>
+      <c r="B207" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" t="s">
-        <v>137</v>
+      <c r="B209" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" t="s">
-        <v>138</v>
+      <c r="B211" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" t="s">
-        <v>139</v>
+      <c r="B213" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="219" s="1" customFormat="1" spans="2:2">
-      <c r="B219" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="7" t="s">
-        <v>143</v>
+      <c r="B221" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="7" t="s">
-        <v>146</v>
+      <c r="B227" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="7" t="s">
-        <v>148</v>
+      <c r="B229" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" s="2" customFormat="1" spans="2:2">
+      <c r="B231" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" t="s">
-        <v>149</v>
+      <c r="B233" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="2:2">
-      <c r="B239" t="s">
-        <v>152</v>
+      <c r="B239" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" t="s">
-        <v>153</v>
+      <c r="B241" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="243" spans="2:2">
-      <c r="B243" t="s">
-        <v>154</v>
+      <c r="B243" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="255" s="1" customFormat="1" spans="2:2">
-      <c r="B255" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="257" spans="2:2">
-      <c r="B257" s="7" t="s">
-        <v>161</v>
+      <c r="B257" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" s="7" t="s">
-        <v>162</v>
+      <c r="B259" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="7" t="s">
-        <v>163</v>
+      <c r="B261" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="7" t="s">
-        <v>164</v>
+      <c r="B263" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="265" spans="2:2">
-      <c r="B265" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" s="7" t="s">
-        <v>166</v>
+      <c r="B265" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="2:2">
+      <c r="B267" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="269" spans="2:2">
-      <c r="B269" t="s">
-        <v>167</v>
+      <c r="B269" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="271" spans="2:2">
-      <c r="B271" t="s">
-        <v>168</v>
+      <c r="B271" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="2:2">
-      <c r="B273" s="7" t="s">
-        <v>169</v>
+      <c r="B273" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="275" spans="2:2">
-      <c r="B275" t="s">
-        <v>170</v>
+      <c r="B275" s="14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="277" spans="2:2">
-      <c r="B277" t="s">
-        <v>171</v>
+      <c r="B277" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="279" spans="2:2">
-      <c r="B279" t="s">
-        <v>172</v>
+      <c r="B279" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="285" spans="2:2">
-      <c r="B285" t="s">
-        <v>175</v>
+      <c r="B285" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="1" spans="2:2">
-      <c r="B299" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" s="7" t="s">
-        <v>183</v>
+      <c r="B301" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="7" t="s">
-        <v>184</v>
+      <c r="B303" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="7" t="s">
-        <v>185</v>
+      <c r="B305" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" s="7" t="s">
-        <v>186</v>
+      <c r="B307" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="7" t="s">
-        <v>188</v>
+      <c r="B309" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" spans="2:2">
+      <c r="B311" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="313" spans="2:2">
-      <c r="B313" t="s">
-        <v>189</v>
+      <c r="B313" s="14" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="315" spans="2:2">
-      <c r="B315" t="s">
-        <v>190</v>
+      <c r="B315" s="14" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="317" spans="2:2">
-      <c r="B317" s="7" t="s">
-        <v>191</v>
+      <c r="B317" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="319" spans="2:2">
-      <c r="B319" s="7" t="s">
-        <v>192</v>
+      <c r="B319" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="321" spans="2:2">
-      <c r="B321" s="7" t="s">
-        <v>193</v>
+      <c r="B321" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="323" spans="2:2">
-      <c r="B323" s="7" t="s">
-        <v>194</v>
+      <c r="B323" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="329" spans="2:2">
-      <c r="B329" s="7" t="s">
-        <v>197</v>
+      <c r="B329" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="331" spans="2:2">
-      <c r="B331" s="7" t="s">
-        <v>198</v>
+      <c r="B331" s="14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="333" spans="2:2">
-      <c r="B333" t="s">
-        <v>199</v>
+      <c r="B333" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="335" spans="2:2">
-      <c r="B335" t="s">
-        <v>200</v>
+      <c r="B335" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="337" spans="2:2">
       <c r="B337" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="341" spans="2:2">
-      <c r="B341" t="s">
-        <v>203</v>
+      <c r="B341" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="343" spans="2:2">
-      <c r="B343" t="s">
-        <v>204</v>
+      <c r="B343" s="14" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" s="7" t="s">
-        <v>207</v>
+      <c r="B349" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" s="7" t="s">
-        <v>208</v>
+      <c r="B351" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="355" spans="2:2">
       <c r="B355" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="357" s="1" customFormat="1" spans="2:2">
-      <c r="B357" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="359" spans="2:2">
-      <c r="B359" s="7" t="s">
-        <v>212</v>
+      <c r="B359" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="361" spans="2:2">
-      <c r="B361" t="s">
-        <v>213</v>
+      <c r="B361" s="14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="363" spans="2:2">
-      <c r="B363" s="7" t="s">
-        <v>214</v>
+      <c r="B363" s="14" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="369" s="2" customFormat="1" spans="2:2">
+      <c r="B369" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" t="s">
-        <v>218</v>
+      <c r="B371" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" t="s">
-        <v>220</v>
+      <c r="B375" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="377" spans="2:2">
       <c r="B377" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="379" spans="2:2">
       <c r="B379" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="389" spans="2:2">
       <c r="B389" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="397" spans="2:2">
       <c r="B397" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="399" spans="2:2">
       <c r="B399" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="401" s="1" customFormat="1" spans="2:2">
-      <c r="B401" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2">
-      <c r="B413" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="413" s="2" customFormat="1" spans="2:2">
+      <c r="B413" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="417" spans="2:2">
       <c r="B417" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="419" spans="2:2">
       <c r="B419" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="423" spans="2:2">
       <c r="B423" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="425" spans="2:2">
-      <c r="B425" s="7" t="s">
-        <v>245</v>
+      <c r="B425" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="431" spans="2:2">
       <c r="B431" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" s="7" t="s">
-        <v>250</v>
+      <c r="B435" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="437" spans="2:2">
-      <c r="B437" t="s">
-        <v>251</v>
+      <c r="B437" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" t="s">
-        <v>256</v>
+      <c r="B447" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="455" spans="2:2">
       <c r="B455" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="457" spans="2:2">
       <c r="B457" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="459" spans="2:2">
       <c r="B459" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="461" spans="2:2">
       <c r="B461" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="463" spans="2:2">
       <c r="B463" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="465" spans="2:2">
       <c r="B465" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="467" spans="2:2">
       <c r="B467" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="471" spans="2:2">
       <c r="B471" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="473" spans="2:2">
       <c r="B473" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="487" spans="2:2">
       <c r="B487" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="489" spans="2:2">
       <c r="B489" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="491" spans="2:2">
       <c r="B491" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="493" spans="2:2">
       <c r="B493" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="495" spans="2:2">
       <c r="B495" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="497" spans="2:2">
       <c r="B497" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="499" spans="2:2">
       <c r="B499" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="501" s="1" customFormat="1" spans="2:2">
-      <c r="B501" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="503" spans="2:2">
-      <c r="B503" s="7" t="s">
-        <v>284</v>
+      <c r="B503" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="505" spans="2:2">
-      <c r="B505" s="7" t="s">
-        <v>285</v>
+      <c r="B505" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="507" spans="2:2">
-      <c r="B507" s="7" t="s">
-        <v>286</v>
+      <c r="B507" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="509" spans="2:2">
-      <c r="B509" s="7" t="s">
-        <v>287</v>
+      <c r="B509" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="511" spans="2:2">
-      <c r="B511" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="513" spans="2:2">
-      <c r="B513" s="7" t="s">
-        <v>289</v>
+      <c r="B511" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="513" s="2" customFormat="1" spans="2:2">
+      <c r="B513" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="515" spans="2:2">
-      <c r="B515" t="s">
-        <v>290</v>
+      <c r="B515" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="517" spans="2:2">
-      <c r="B517" t="s">
-        <v>291</v>
+      <c r="B517" s="14" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="519" spans="2:2">
-      <c r="B519" t="s">
-        <v>292</v>
+      <c r="B519" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="521" spans="2:2">
-      <c r="B521" t="s">
-        <v>293</v>
+      <c r="B521" s="14" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="523" spans="2:2">
-      <c r="B523" t="s">
-        <v>294</v>
+      <c r="B523" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="525" spans="2:2">
-      <c r="B525" t="s">
-        <v>295</v>
+      <c r="B525" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="561" spans="2:2">
-      <c r="B561" s="7" t="s">
-        <v>313</v>
+      <c r="B561" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="573" spans="2:2">
-      <c r="B573" t="s">
-        <v>319</v>
+      <c r="B573" s="14" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="577" spans="2:2">
-      <c r="B577" s="7" t="s">
-        <v>321</v>
+      <c r="B577" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="585" spans="2:2">
-      <c r="B585" s="7" t="s">
-        <v>325</v>
+      <c r="B585" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="587" spans="2:2">
       <c r="B587" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="589" spans="2:2">
-      <c r="B589" t="s">
-        <v>327</v>
+      <c r="B589" s="14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="591" spans="2:2">
       <c r="B591" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="593" spans="2:2">
-      <c r="B593" s="7" t="s">
-        <v>329</v>
+      <c r="B593" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="595" spans="2:2">
       <c r="B595" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="597" spans="2:2">
-      <c r="B597" s="7" t="s">
-        <v>331</v>
+      <c r="B597" s="14" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="599" spans="2:2">
       <c r="B599" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="601" spans="2:2">
-      <c r="B601" s="7" t="s">
-        <v>333</v>
+      <c r="B601" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="603" spans="2:2">
       <c r="B603" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="605" spans="2:2">
-      <c r="B605" t="s">
-        <v>335</v>
+      <c r="B605" s="14" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="607" spans="2:2">
       <c r="B607" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="609" spans="2:2">
-      <c r="B609" t="s">
-        <v>337</v>
+      <c r="B609" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2">
+      <c r="B613" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2">
+      <c r="B615" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2">
+      <c r="B617" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2">
+      <c r="B619" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2">
+      <c r="B621" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24585" windowHeight="9660" activeTab="1"/>
+    <workbookView windowWidth="22425" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="now" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="401">
   <si>
     <t>http://novel.tingroom.com/</t>
   </si>
@@ -50,6 +50,12 @@
     <t>羊皮卷</t>
   </si>
   <si>
+    <t>面试整理</t>
+  </si>
+  <si>
+    <t>https://hit-alibaba.github.io/interview/basic/network/Socket-Programming-Basic.html</t>
+  </si>
+  <si>
     <t>C++</t>
   </si>
   <si>
@@ -101,6 +107,24 @@
     <t>stl源码剖析</t>
   </si>
   <si>
+    <t>C++11</t>
+  </si>
+  <si>
+    <t>深入理解C++11</t>
+  </si>
+  <si>
+    <t>Effective Modern C++</t>
+  </si>
+  <si>
+    <t>meyer</t>
+  </si>
+  <si>
+    <t>现代C++教程</t>
+  </si>
+  <si>
+    <t>程序员的自我修养—链接、装载与库</t>
+  </si>
+  <si>
     <t>深度探索 c++ 对象模型</t>
   </si>
   <si>
@@ -110,25 +134,58 @@
     <t>大部分是硬件体系结构相关，少量的软件部分只提了一小部分知识</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C和指针</t>
+  </si>
+  <si>
+    <t>C专家编程</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>unix 环境高级编程</t>
+  </si>
+  <si>
+    <t>Unix网络编程 卷1,2</t>
+  </si>
+  <si>
+    <t>TCP/IP详解 卷1,2,3</t>
+  </si>
+  <si>
+    <t>linux 高性能服务器编程</t>
+  </si>
+  <si>
+    <t>游双(345p)</t>
+  </si>
+  <si>
     <t>linux 多线程服务端编程</t>
   </si>
   <si>
     <t>陈硕</t>
   </si>
   <si>
-    <t>C++11</t>
-  </si>
-  <si>
-    <t>深入理解C++11</t>
-  </si>
-  <si>
-    <t>Effective Modern C++</t>
-  </si>
-  <si>
-    <t>meyer</t>
-  </si>
-  <si>
-    <t>现代C++教程</t>
+    <t>libevent 源码深度剖析 P44</t>
+  </si>
+  <si>
+    <t>张亮</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>Libevent 深入浅出 P146</t>
+  </si>
+  <si>
+    <t>刘丹冰</t>
+  </si>
+  <si>
+    <t>libevent 参考手册（中文版）P126</t>
+  </si>
+  <si>
+    <t>介绍函数使用</t>
   </si>
   <si>
     <t>数学</t>
@@ -158,18 +215,6 @@
     <t>设计模式 可复用面向对象软件的基础</t>
   </si>
   <si>
-    <t>程序员的自我修养—链接、装载与库</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C和指针</t>
-  </si>
-  <si>
-    <t>C专家编程</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -215,31 +260,64 @@
     <t>计算机体系结构</t>
   </si>
   <si>
+    <t>win32</t>
+  </si>
+  <si>
+    <t>在WIN32中（区别于Linux，其实也差不多），同步机制主要有以下几种：</t>
+  </si>
+  <si>
+    <t>（1）事件(Event);</t>
+  </si>
+  <si>
+    <t>（2）信号量(semaphore);</t>
+  </si>
+  <si>
+    <t>（3）互斥量(mutex);</t>
+  </si>
+  <si>
+    <t>（4）临界区(Critical section)。</t>
+  </si>
+  <si>
+    <t>数据结构和算法</t>
+  </si>
+  <si>
+    <t>大话数据结构</t>
+  </si>
+  <si>
+    <t>面试宝典</t>
+  </si>
+  <si>
+    <t>剑指offer</t>
+  </si>
+  <si>
+    <t>程序员代码面试指南：IT名企算法与数据结构题目最优解</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>代码整洁之道</t>
+  </si>
+  <si>
+    <t>程序员修炼指南</t>
+  </si>
+  <si>
     <t>代码大全</t>
   </si>
   <si>
     <t>进程间通信</t>
   </si>
   <si>
-    <t>unix 环境编程</t>
-  </si>
-  <si>
-    <t>数据结构和算法</t>
-  </si>
-  <si>
-    <t>大话数据结构</t>
-  </si>
-  <si>
-    <t>面试宝典</t>
-  </si>
-  <si>
-    <t>剑指offer</t>
-  </si>
-  <si>
-    <t>代码整洁之道</t>
-  </si>
-  <si>
-    <t>程序员修炼指南</t>
+    <t>多线程总结.docx</t>
+  </si>
+  <si>
+    <t>多线程同步  信号量，临界区。。。</t>
+  </si>
+  <si>
+    <t>TCP头解析</t>
+  </si>
+  <si>
+    <t>TCP握手协议， 数据传输细节(拥塞控制)</t>
   </si>
   <si>
     <t>其他</t>
@@ -254,7 +332,7 @@
     <t>epoll</t>
   </si>
   <si>
-    <t>libevent</t>
+    <t>libevent 源码剖析</t>
   </si>
   <si>
     <t>地图管理</t>
@@ -299,7 +377,79 @@
     <t>tcp 拥塞控制，头解析，握手协议</t>
   </si>
   <si>
-    <t>异步send recv 函数 实现</t>
+    <t>异步connect,send，recv 等socket相关 函数 实现</t>
+  </si>
+  <si>
+    <t>protobuf</t>
+  </si>
+  <si>
+    <t>有限状态机，行为树</t>
+  </si>
+  <si>
+    <t>select,poll,epoll区别，源码分析</t>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/article/1344704?from=information.detail.linux%20%E5%BC%82%E6%AD%A5socket</t>
+  </si>
+  <si>
+    <t>socket结合TCP流程理解</t>
+  </si>
+  <si>
+    <t>tcpdump 使用， 研究握手协议，传输机制</t>
+  </si>
+  <si>
+    <t>epoll源码分析</t>
+  </si>
+  <si>
+    <t>子线程处理控制台操作</t>
+  </si>
+  <si>
+    <t>项目组长管理相关技能，管理组员，代码审核等</t>
+  </si>
+  <si>
+    <t>linux多进程，多线程同步方式， 信号量，临界区等。。</t>
+  </si>
+  <si>
+    <t>消息协议队列数据积压时，怎么处理？ 少插入，多取出</t>
+  </si>
+  <si>
+    <t>std::async/std::future, std::package_task,std::promise</t>
+  </si>
+  <si>
+    <t>三次握手协议最后一次不发送会发生什么事情？？</t>
+  </si>
+  <si>
+    <t>大量 fin_wait_1是什么原因？？</t>
+  </si>
+  <si>
+    <t>udp可靠传输协议设计？</t>
+  </si>
+  <si>
+    <t>同步，异步，阻塞，非阻塞 理解</t>
+  </si>
+  <si>
+    <t>epoll 是不是线程安全？</t>
+  </si>
+  <si>
+    <t>epoll红黑树的实现是不是线程安全？</t>
+  </si>
+  <si>
+    <t>proactor iocp</t>
+  </si>
+  <si>
+    <t>c++ 特性，对象模型</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>网络原理</t>
+  </si>
+  <si>
+    <t>网络编程</t>
+  </si>
+  <si>
+    <t>游戏逻辑，性能</t>
   </si>
   <si>
     <t>독서연구소</t>
@@ -1075,13 +1225,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,40 +1240,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Batang"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,7 +1300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,13 +1327,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1178,49 +1351,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1233,14 +1367,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,6 +1441,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1309,19 +1471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,13 +1501,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,25 +1555,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,13 +1603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,19 +1639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,61 +1651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,23 +1668,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,37 +1724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,22 +1758,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1620,149 +1782,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1778,33 +1940,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1814,7 +1988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1869,13 +2043,312 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2103120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985" y="352425"/>
+          <a:ext cx="3567430" cy="2671445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>715645</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1357630</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="715645" y="2956560"/>
+          <a:ext cx="2113280" cy="1294130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8310880" y="9525"/>
+          <a:ext cx="2572385" cy="1918335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1302385</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="4331970"/>
+          <a:ext cx="2091055" cy="1960245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8166100" y="1945640"/>
+          <a:ext cx="2533650" cy="1640840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8310880" y="3599815"/>
+          <a:ext cx="2374265" cy="1814195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3846830</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1471295" y="6858000"/>
+          <a:ext cx="3846830" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2171,12 +2644,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="38.825" customWidth="1"/>
     <col min="3" max="3" width="8.64166666666667" customWidth="1"/>
     <col min="4" max="4" width="10.925"/>
-    <col min="5" max="5" width="11.95" customWidth="1"/>
+    <col min="5" max="5" width="11.9416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -2198,13 +2671,13 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="22">
         <v>78</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="23">
         <v>43956</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="23">
         <v>43962</v>
       </c>
     </row>
@@ -2212,7 +2685,7 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="24">
         <v>99</v>
       </c>
       <c r="D14" s="5">
@@ -2226,15 +2699,15 @@
       <c r="C15" s="4">
         <v>72</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="23">
         <v>43965</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="23">
         <v>43966</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C16">
@@ -2258,7 +2731,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2277,1817 +2750,2081 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G621"/>
+  <dimension ref="A59:G955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="42.325" customWidth="1"/>
+    <col min="1" max="1" width="19.3083333333333" customWidth="1"/>
+    <col min="2" max="2" width="55.075" customWidth="1"/>
     <col min="3" max="3" width="23.1833333333333" customWidth="1"/>
     <col min="4" max="5" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C59" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="B62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="5">
         <v>44153</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E62" s="5">
         <v>44165</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="8" t="s">
+    <row r="63" spans="2:3">
+      <c r="B63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="8" t="s">
+    <row r="64" spans="2:3">
+      <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
+      <c r="C64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="5">
         <v>44195</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E66" s="5">
         <v>44200</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="7"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="5">
+        <v>44186</v>
+      </c>
+      <c r="E75" s="5">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="5">
+        <v>44182</v>
+      </c>
+      <c r="E76" s="5">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:5">
+      <c r="B77" s="7"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:5">
+      <c r="B78" s="7"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:5">
+      <c r="B79" s="7"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:5">
+      <c r="B82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="10">
+        <v>44202</v>
+      </c>
+      <c r="E82" s="10">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9">
-        <v>44202</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="D83" s="5">
         <v>44166</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E83" s="5">
         <v>44169</v>
       </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="7"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5">
-        <v>44186</v>
-      </c>
-      <c r="E23" s="5">
-        <v>44194</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="5">
-        <v>44182</v>
-      </c>
-      <c r="E24" s="5">
-        <v>44186</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="G83" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="11" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B89" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5">
-        <v>44180</v>
-      </c>
-      <c r="E34" s="5">
-        <v>44182</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="5">
-        <v>44173</v>
-      </c>
-      <c r="E48" s="5">
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="9">
-        <v>44200</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="2:5">
+      <c r="B98" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="10">
+        <v>44207</v>
+      </c>
+      <c r="E98" s="10">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="2:3">
+      <c r="B100" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115" s="5">
+        <v>44180</v>
+      </c>
+      <c r="E115" s="5">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>69</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="5">
+        <v>44173</v>
+      </c>
+      <c r="E132" s="5">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="2:5">
+      <c r="B135" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D135" s="10">
+        <v>44210</v>
+      </c>
+      <c r="E135" s="10">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>80</v>
+      </c>
+      <c r="B143" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" ht="15" spans="1:2">
+      <c r="A149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="2:2">
+      <c r="B150" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="2:2">
+      <c r="B151" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="2:2">
+      <c r="B152" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="2:2">
+      <c r="B153" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>89</v>
+      </c>
+      <c r="B160" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="3" customFormat="1"/>
-    <row r="133" spans="2:2">
-      <c r="B133" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="134" customFormat="1" spans="2:2">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" s="2" customFormat="1" spans="2:2">
-      <c r="B135" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4">
-      <c r="B139" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="17">
-        <v>72</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="153" s="2" customFormat="1" spans="2:2">
-      <c r="B153" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" spans="2:5">
+      <c r="B166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="16">
+        <v>44200</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" t="s">
-        <v>131</v>
+        <v>96</v>
+      </c>
+      <c r="C171" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>101</v>
+      </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>134</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>137</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" t="s">
-        <v>138</v>
+      <c r="B197" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>139</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>140</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="205" s="2" customFormat="1" spans="2:2">
-      <c r="B205" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="14" t="s">
-        <v>144</v>
+      <c r="B207" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="14" t="s">
-        <v>145</v>
+      <c r="B211" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
+      <c r="B213" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
       <c r="B215" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="C215" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>148</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
       <c r="B221" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="C221" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>145</v>
+      </c>
+      <c r="B441" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="17" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="231" s="2" customFormat="1" spans="2:2">
-      <c r="B231" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="267" s="2" customFormat="1" spans="2:2">
-      <c r="B267" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2">
-      <c r="B283" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2">
-      <c r="B291" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="311" s="2" customFormat="1" spans="2:2">
-      <c r="B311" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2">
-      <c r="B325" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2">
-      <c r="B327" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2">
-      <c r="B343" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2">
-      <c r="B347" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2">
-      <c r="B349" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2">
-      <c r="B351" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2">
-      <c r="B353" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2">
-      <c r="B355" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="369" s="2" customFormat="1" spans="2:2">
-      <c r="B369" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2">
-      <c r="B373" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2">
-      <c r="B381" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="383" spans="2:2">
-      <c r="B383" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2">
-      <c r="B385" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2">
-      <c r="B387" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2">
-      <c r="B391" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2">
-      <c r="B393" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2">
-      <c r="B395" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2">
-      <c r="B397" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2">
-      <c r="B401" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2">
-      <c r="B403" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2">
-      <c r="B405" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2">
-      <c r="B407" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2">
-      <c r="B409" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2">
-      <c r="B411" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="413" s="2" customFormat="1" spans="2:2">
-      <c r="B413" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2">
-      <c r="B415" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="417" spans="2:2">
-      <c r="B417" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2">
-      <c r="B419" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2">
-      <c r="B423" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2">
-      <c r="B425" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="427" spans="2:2">
-      <c r="B427" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="429" spans="2:2">
-      <c r="B429" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="431" spans="2:2">
-      <c r="B431" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2">
-      <c r="B433" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2">
-      <c r="B435" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2">
-      <c r="B437" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="439" spans="2:2">
-      <c r="B439" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="441" spans="2:2">
-      <c r="B441" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="443" spans="2:2">
-      <c r="B443" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="445" spans="2:2">
-      <c r="B445" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="447" spans="2:2">
-      <c r="B447" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" t="s">
-        <v>264</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="453" spans="2:2">
-      <c r="B453" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="455" spans="2:2">
-      <c r="B455" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="457" spans="2:2">
-      <c r="B457" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="459" spans="2:2">
-      <c r="B459" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="461" spans="2:2">
-      <c r="B461" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="463" spans="2:2">
-      <c r="B463" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="465" spans="2:2">
-      <c r="B465" t="s">
-        <v>272</v>
-      </c>
-    </row>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="465" s="3" customFormat="1"/>
+    <row r="466" s="1" customFormat="1"/>
     <row r="467" spans="2:2">
-      <c r="B467" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="469" spans="2:2">
-      <c r="B469" t="s">
-        <v>274</v>
+      <c r="B467" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="1"/>
+    </row>
+    <row r="469" s="3" customFormat="1" spans="2:2">
+      <c r="B469" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="471" spans="2:2">
-      <c r="B471" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="473" spans="2:2">
-      <c r="B473" t="s">
-        <v>276</v>
+      <c r="B471" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4">
+      <c r="B473" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" s="21">
+        <v>72</v>
+      </c>
+      <c r="D473" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" t="s">
-        <v>280</v>
+        <v>164</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="487" spans="2:2">
-      <c r="B487" t="s">
-        <v>283</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="487" s="3" customFormat="1" spans="2:2">
+      <c r="B487" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="489" spans="2:2">
       <c r="B489" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
     </row>
     <row r="491" spans="2:2">
-      <c r="B491" t="s">
-        <v>285</v>
+      <c r="B491" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="493" spans="2:2">
       <c r="B493" t="s">
-        <v>286</v>
+        <v>169</v>
       </c>
     </row>
     <row r="495" spans="2:2">
       <c r="B495" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
     </row>
     <row r="497" spans="2:2">
       <c r="B497" t="s">
-        <v>288</v>
+        <v>171</v>
       </c>
     </row>
     <row r="499" spans="2:2">
       <c r="B499" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
     </row>
     <row r="501" spans="2:2">
-      <c r="B501" t="s">
-        <v>290</v>
+      <c r="B501" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="503" spans="2:2">
-      <c r="B503" t="s">
-        <v>291</v>
+      <c r="B503" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="505" spans="2:2">
       <c r="B505" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
     </row>
     <row r="507" spans="2:2">
       <c r="B507" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
     </row>
     <row r="509" spans="2:2">
       <c r="B509" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
     </row>
     <row r="511" spans="2:2">
       <c r="B511" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="513" s="2" customFormat="1" spans="2:2">
-      <c r="B513" s="2" t="s">
-        <v>296</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="515" spans="2:2">
-      <c r="B515" s="14" t="s">
-        <v>297</v>
+      <c r="B515" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="517" spans="2:2">
-      <c r="B517" s="14" t="s">
-        <v>298</v>
+      <c r="B517" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="519" spans="2:2">
-      <c r="B519" s="14" t="s">
-        <v>299</v>
+      <c r="B519" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="521" spans="2:2">
-      <c r="B521" s="14" t="s">
-        <v>300</v>
+      <c r="B521" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="523" spans="2:2">
-      <c r="B523" s="14" t="s">
-        <v>301</v>
+      <c r="B523" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="525" spans="2:2">
-      <c r="B525" s="14" t="s">
-        <v>302</v>
+      <c r="B525" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" t="s">
-        <v>306</v>
+        <v>189</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="539" spans="2:2">
-      <c r="B539" t="s">
-        <v>309</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="539" s="3" customFormat="1" spans="2:2">
+      <c r="B539" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="541" spans="2:2">
-      <c r="B541" t="s">
-        <v>310</v>
+      <c r="B541" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="543" spans="2:2">
-      <c r="B543" t="s">
-        <v>311</v>
+      <c r="B543" s="18" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="545" spans="2:2">
-      <c r="B545" t="s">
-        <v>312</v>
+      <c r="B545" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="547" spans="2:2">
-      <c r="B547" t="s">
-        <v>313</v>
+      <c r="B547" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" t="s">
-        <v>315</v>
+        <v>198</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" t="s">
-        <v>316</v>
+        <v>199</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" t="s">
-        <v>318</v>
+        <v>201</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" t="s">
-        <v>319</v>
+        <v>202</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" t="s">
-        <v>320</v>
+        <v>203</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="565" spans="2:2">
-      <c r="B565" t="s">
-        <v>322</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="565" s="3" customFormat="1" spans="2:2">
+      <c r="B565" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="567" spans="2:2">
-      <c r="B567" t="s">
-        <v>323</v>
+      <c r="B567" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" t="s">
-        <v>324</v>
+        <v>207</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" t="s">
-        <v>325</v>
+        <v>208</v>
       </c>
     </row>
     <row r="573" spans="2:2">
-      <c r="B573" s="14" t="s">
-        <v>326</v>
+      <c r="B573" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="575" spans="2:2">
-      <c r="B575" t="s">
-        <v>327</v>
+      <c r="B575" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="577" spans="2:2">
-      <c r="B577" t="s">
-        <v>328</v>
+      <c r="B577" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
     </row>
     <row r="585" spans="2:2">
       <c r="B585" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
     </row>
     <row r="587" spans="2:2">
       <c r="B587" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
     </row>
     <row r="589" spans="2:2">
-      <c r="B589" s="14" t="s">
-        <v>334</v>
+      <c r="B589" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="591" spans="2:2">
       <c r="B591" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
     </row>
     <row r="593" spans="2:2">
       <c r="B593" t="s">
-        <v>336</v>
+        <v>219</v>
       </c>
     </row>
     <row r="595" spans="2:2">
       <c r="B595" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
     </row>
     <row r="597" spans="2:2">
-      <c r="B597" s="14" t="s">
-        <v>338</v>
+      <c r="B597" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="599" spans="2:2">
       <c r="B599" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="601" spans="2:2">
-      <c r="B601" t="s">
-        <v>340</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="601" s="3" customFormat="1" spans="2:2">
+      <c r="B601" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="603" spans="2:2">
-      <c r="B603" t="s">
-        <v>341</v>
+      <c r="B603" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="605" spans="2:2">
-      <c r="B605" s="14" t="s">
-        <v>342</v>
+      <c r="B605" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="607" spans="2:2">
-      <c r="B607" t="s">
-        <v>343</v>
+      <c r="B607" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="609" spans="2:2">
-      <c r="B609" s="14" t="s">
-        <v>344</v>
+      <c r="B609" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="611" spans="2:2">
-      <c r="B611" t="s">
-        <v>345</v>
+      <c r="B611" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="613" spans="2:2">
-      <c r="B613" s="14" t="s">
-        <v>346</v>
+      <c r="B613" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="615" spans="2:2">
       <c r="B615" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
     </row>
     <row r="617" spans="2:2">
       <c r="B617" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
     </row>
     <row r="619" spans="2:2">
-      <c r="B619" t="s">
-        <v>349</v>
+      <c r="B619" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="621" spans="2:2">
       <c r="B621" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2">
+      <c r="B623" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2">
+      <c r="B625" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2">
+      <c r="B629" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2">
+      <c r="B631" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2">
+      <c r="B637" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2">
+      <c r="B639" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2">
+      <c r="B641" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2">
+      <c r="B643" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="645" s="3" customFormat="1" spans="2:2">
+      <c r="B645" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2">
+      <c r="B647" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2">
+      <c r="B649" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2">
+      <c r="B651" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2">
+      <c r="B655" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2">
+      <c r="B657" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2">
+      <c r="B659" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2">
+      <c r="B661" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2">
+      <c r="B663" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2">
+      <c r="B665" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2">
+      <c r="B667" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2">
+      <c r="B669" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2">
+      <c r="B671" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2">
+      <c r="B683" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2">
+      <c r="B687" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2">
+      <c r="B689" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2">
+      <c r="B691" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2">
+      <c r="B693" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2">
+      <c r="B697" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2">
+      <c r="B701" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="703" s="3" customFormat="1" spans="2:2">
+      <c r="B703" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2">
+      <c r="B705" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2">
+      <c r="B707" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2">
+      <c r="B709" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2">
+      <c r="B711" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2">
+      <c r="B713" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2">
+      <c r="B715" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2">
+      <c r="B717" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2">
+      <c r="B719" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2">
+      <c r="B721" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2">
+      <c r="B723" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2">
+      <c r="B725" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2">
+      <c r="B727" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2">
+      <c r="B729" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2">
+      <c r="B731" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2">
+      <c r="B733" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2">
+      <c r="B735" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2">
+      <c r="B737" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2">
+      <c r="B739" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2">
+      <c r="B741" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2">
+      <c r="B743" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2">
+      <c r="B745" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="747" s="3" customFormat="1" spans="2:2">
+      <c r="B747" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2">
+      <c r="B749" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2">
+      <c r="B751" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2">
+      <c r="B753" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2">
+      <c r="B755" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2">
+      <c r="B757" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2">
+      <c r="B759" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2">
+      <c r="B761" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2">
+      <c r="B763" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2">
+      <c r="B765" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2">
+      <c r="B767" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2">
+      <c r="B769" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2">
+      <c r="B771" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2">
+      <c r="B773" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2">
+      <c r="B775" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2">
+      <c r="B777" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2">
+      <c r="B779" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2">
+      <c r="B781" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2">
+      <c r="B783" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2">
+      <c r="B785" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2">
+      <c r="B787" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2">
+      <c r="B789" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2">
+      <c r="B791" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2">
+      <c r="B793" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2">
+      <c r="B795" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2">
+      <c r="B797" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2">
+      <c r="B799" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2">
+      <c r="B801" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2">
+      <c r="B803" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2">
+      <c r="B805" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2">
+      <c r="B807" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2">
+      <c r="B809" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2">
+      <c r="B811" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2">
+      <c r="B813" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2">
+      <c r="B815" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2">
+      <c r="B817" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2">
+      <c r="B819" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2">
+      <c r="B821" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2">
+      <c r="B823" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2">
+      <c r="B825" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2">
+      <c r="B827" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2">
+      <c r="B829" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2">
+      <c r="B831" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2">
+      <c r="B833" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2">
+      <c r="B835" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2">
+      <c r="B837" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2">
+      <c r="B839" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2">
+      <c r="B841" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2">
+      <c r="B843" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2">
+      <c r="B845" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="847" s="3" customFormat="1" spans="2:2">
+      <c r="B847" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2">
+      <c r="B849" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2">
+      <c r="B851" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2">
+      <c r="B853" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2">
+      <c r="B855" s="18" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2">
+      <c r="B857" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2">
+      <c r="B859" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2">
+      <c r="B861" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2">
+      <c r="B863" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="865" spans="2:2">
+      <c r="B865" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="867" spans="2:2">
+      <c r="B867" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="869" spans="2:2">
+      <c r="B869" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="871" spans="2:2">
+      <c r="B871" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="873" spans="2:2">
+      <c r="B873" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="875" spans="2:2">
+      <c r="B875" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="877" spans="2:2">
+      <c r="B877" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="879" spans="2:2">
+      <c r="B879" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2">
+      <c r="B881" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2">
+      <c r="B883" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2">
+      <c r="B885" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2">
+      <c r="B887" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2">
+      <c r="B889" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2">
+      <c r="B891" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2">
+      <c r="B893" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2">
+      <c r="B895" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2">
+      <c r="B897" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2">
+      <c r="B899" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2">
+      <c r="B901" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2">
+      <c r="B903" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2">
+      <c r="B905" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2">
+      <c r="B907" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2">
+      <c r="B909" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2">
+      <c r="B911" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2">
+      <c r="B913" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2">
+      <c r="B915" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2">
+      <c r="B917" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2">
+      <c r="B919" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2">
+      <c r="B921" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2">
+      <c r="B923" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2">
+      <c r="B925" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2">
+      <c r="B927" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="929" spans="2:2">
+      <c r="B929" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="931" spans="2:2">
+      <c r="B931" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="933" spans="2:2">
+      <c r="B933" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="935" spans="2:2">
+      <c r="B935" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="937" spans="2:2">
+      <c r="B937" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="939" spans="2:2">
+      <c r="B939" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="941" spans="2:2">
+      <c r="B941" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="943" spans="2:2">
+      <c r="B943" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2">
+      <c r="B945" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2">
+      <c r="B947" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2">
+      <c r="B949" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2">
+      <c r="B951" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2">
+      <c r="B953" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2">
+      <c r="B955" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>